--- a/medicine/Enfance/Barney_Mysteries/Barney_Mysteries.xlsx
+++ b/medicine/Enfance/Barney_Mysteries/Barney_Mysteries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Barney Mysteries est une série de six romans pour la jeunesse écrite par Enid Blyton
@@ -512,7 +524,9 @@
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série est parue en France dans la collection Bibliothèque rose. Le titre Le Mystère du carillon a été réédité en 1980 dans la collection Idéal-Bibliothèque. 
 </t>
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La série évoque les aventures de Sylvain le vagabond (Barney en version originale, d'où le titre de la série), et de ses amis Éric, dit Toufou (Peter dit Snubby), un orphelin, et des deux cousins de Toufou : Roger (Roger) et Nelly (Diana). Les enfants sont accompagnés du chien de Toufou : Crac (Loony en VO), et de la guenon de Sylvain : Virginie (Miranda). 
 </t>
@@ -574,32 +590,239 @@
           <t>Liste des romans</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En version originale, le titre des romans commence toujours par la lettre « R ». 
-Le Mystère du vieux manoir
-Titre original : The Rockingdown Mystery’'
-Année de parution : 1949
-Le Mystère des gants verts
-Titre original : The Rilloby Fair Mystery
-Année de parution : 1950
-Le Mystère du carillon
-Titre original : The Ring O'Bells Mystery
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En version originale, le titre des romans commence toujours par la lettre « R ». 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Barney_Mysteries</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barney_Mysteries</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des romans</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le Mystère du vieux manoir</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Titre original : The Rockingdown Mystery’'
+Année de parution : 1949</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Barney_Mysteries</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barney_Mysteries</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des romans</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le Mystère des gants verts</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Titre original : The Rilloby Fair Mystery
+Année de parution : 1950</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Barney_Mysteries</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barney_Mysteries</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des romans</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le Mystère du carillon</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Titre original : The Ring O'Bells Mystery
 Année de parution : 1951
 Année de parution en France : 1959
-Résumé :
-Le Mystère de la roche percée
-Titre original : The Rubadub Mystery
+Résumé :</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Barney_Mysteries</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barney_Mysteries</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des romans</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Le Mystère de la roche percée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Titre original : The Rubadub Mystery
 Année de parution : 1952
 Année de parution en France : 1960
-Résumé :
-Le Mystère de monsieur personne
-Titre original : The Rat-a-Tat Mystery
+Résumé :</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Barney_Mysteries</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barney_Mysteries</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des romans</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Le Mystère de monsieur personne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Titre original : The Rat-a-Tat Mystery
 Année de parution : 1956
 Année de parution en France : 1961
-Résumé :
-Le Mystère des voleurs volés
-Titre original : The Ragamuffin Mystery
+Résumé :</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Barney_Mysteries</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barney_Mysteries</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des romans</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Le Mystère des voleurs volés</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Titre original : The Ragamuffin Mystery
 Année de parution : 1959
 Année de parution en France : 1962
 Résumé :</t>
